--- a/Reports/heart/heart_distcorrgan_10_1.xlsx
+++ b/Reports/heart/heart_distcorrgan_10_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1892</v>
+        <v>-0.118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1824</v>
+        <v>-0.118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6995</v>
+        <v>0.7594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.1303</v>
+        <v>1.1829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1865</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.6536</v>
+        <v>1.3866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2188</v>
+        <v>-0.0988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5625</v>
+        <v>0.7167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0455</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0001</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6815</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="13">
